--- a/instance/bao_cao_ra_vao.xlsx
+++ b/instance/bao_cao_ra_vao.xlsx
@@ -588,12 +588,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15:15:06 28-01-2024</t>
+          <t>15:15:06 01-01-2024</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:15:01 28-01-2024</t>
+          <t>15:15:01 01-01-2024</t>
         </is>
       </c>
     </row>
